--- a/rtss-pre1917/src/main/resources/census-1897/categories.xlsx
+++ b/rtss-pre1917/src/main/resources/census-1897/categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\census-1897\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E33617-6F0E-472F-9DBC-0E6BF100D4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B1B70E-B106-471E-B501-725416A3E606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="1395" windowWidth="28185" windowHeight="19845" xr2:uid="{92724D0E-B234-4E55-96E7-565027639B5C}"/>
+    <workbookView xWindow="67155" yWindow="2820" windowWidth="28185" windowHeight="19845" activeTab="1" xr2:uid="{92724D0E-B234-4E55-96E7-565027639B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="2" r:id="rId1"/>
@@ -389,7 +389,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -431,7 +431,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAD0A7B-3404-42E8-85F9-D8FBA00428FE}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -826,9 +826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAED65A-5A6E-43F7-B50C-6E37F76F3A03}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O36" sqref="O36:S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/rtss-pre1917/src/main/resources/census-1897/categories.xlsx
+++ b/rtss-pre1917/src/main/resources/census-1897/categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\census-1897\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B1B70E-B106-471E-B501-725416A3E606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137337FF-56EF-488E-9BFD-37366AF3954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67155" yWindow="2820" windowWidth="28185" windowHeight="19845" activeTab="1" xr2:uid="{92724D0E-B234-4E55-96E7-565027639B5C}"/>
+    <workbookView xWindow="81870" yWindow="3435" windowWidth="28185" windowHeight="19845" activeTab="1" xr2:uid="{92724D0E-B234-4E55-96E7-565027639B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="2" r:id="rId1"/>
@@ -291,9 +291,6 @@
     <t>Средняя Азия</t>
   </si>
   <si>
-    <t>Ферганская</t>
-  </si>
-  <si>
     <t>Дагестанская обл.</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>т. 1</t>
   </si>
   <si>
-    <t>%католиков</t>
-  </si>
-  <si>
     <t>% протестантов</t>
   </si>
   <si>
@@ -382,6 +376,12 @@
   </si>
   <si>
     <t>"Общий свод по Империи результатов разработки, данных первой всеобщей переписи населения, произведенной 28 января 1897 года", С.-Пб. 1905.</t>
+  </si>
+  <si>
+    <t>% иудеев</t>
+  </si>
+  <si>
+    <t>Ферганская обл.</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -769,52 +769,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>104</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -827,8 +827,8 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O36" sqref="O36:S39"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -848,13 +848,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1080,7 +1080,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2">
         <v>95.2</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2">
         <v>2.8</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2">
         <v>9.6</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2">
         <v>90.6</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2">
         <v>33.700000000000003</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2">
         <v>86.3</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
         <v>66.2</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2">
         <v>50.9</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2">
         <v>11.4</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2">
         <v>33.1</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="2">
         <v>8.6999999999999993</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>1.6</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>10</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>9.6999999999999993</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>3</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>7.7</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>25.41</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2">
         <v>0.6</v>

--- a/rtss-pre1917/src/main/resources/census-1897/categories.xlsx
+++ b/rtss-pre1917/src/main/resources/census-1897/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\census-1897\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137337FF-56EF-488E-9BFD-37366AF3954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07331E5-7F71-46F7-8AC8-508E8DDA9536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="81870" yWindow="3435" windowWidth="28185" windowHeight="19845" activeTab="1" xr2:uid="{92724D0E-B234-4E55-96E7-565027639B5C}"/>
   </bookViews>
@@ -408,12 +408,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -428,11 +434,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,8 +834,8 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -858,7 +865,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
@@ -875,7 +882,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
@@ -1793,7 +1800,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="3">
@@ -1997,7 +2004,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3">
@@ -2201,7 +2208,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" t="s">
+      <c r="A81" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B81" s="3">
@@ -2371,7 +2378,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="s">
+      <c r="A91" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B91" s="3">
